--- a/PROACC2/PROACC2/assets/Uploadedppt/ActivityTemplate.xlsx
+++ b/PROACC2/PROACC2/assets/Uploadedppt/ActivityTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Projects\PROACC NEW UI\Azure\PROACC2_\PROACC2\PROACC2\assets\Uploadedppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE491D-B201-4891-BF7A-E962659EC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19527EF-9EF9-43F6-A6C3-251B1F2BC9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6DA6027-E2A7-4CBA-BE8E-BC1D2A473FB4}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:G1449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,6 +615,12 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" t="str">
+        <f>IF(F3="Parallel","P1","")</f>
+        <v/>
+      </c>
+    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G4" t="str">
         <f t="shared" ref="G4:G66" si="0">IF(F4="Parallel","P1","")</f>
@@ -9286,7 +9292,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{CCA84229-6DF6-4825-9189-5511F5DB8CBD}">
       <formula1>_BuildingBlock</formula1>
     </dataValidation>
@@ -9306,7 +9312,11 @@
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Max Allowed length is 3" prompt="Max Length 3" sqref="G2:G1449" xr:uid="{2CD231DA-111B-42EC-A8BD-FC953CD62B30}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Max Allowed length is 3" prompt="Max Length 3" sqref="G5:G1449" xr:uid="{2CD231DA-111B-42EC-A8BD-FC953CD62B30}">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Max Allowed length is 3" prompt="Max Length 3" sqref="G2:G4" xr:uid="{84F86E32-484B-4D42-BB09-B122280CDA74}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -9319,9 +9329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFF7857-8734-4825-9275-77CADCD865C4}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
